--- a/trials_color.xlsx
+++ b/trials_color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\gits\alej_colour_self_friend_other\lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\gits\alej_colour_self_friend_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75DA01-8393-4995-BE1B-30C7651DF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B46688-5744-404C-AFE2-E7837CFFAED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5625" yWindow="-21570" windowWidth="13395" windowHeight="19710" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>word</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>greenother</t>
-  </si>
-  <si>
-    <t>RAVIE</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Ravie</t>
-  </si>
-  <si>
-    <t>$font_main4</t>
   </si>
   <si>
     <t>$font_main1</t>
@@ -330,10 +318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -348,7 +336,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -363,7 +351,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -371,19 +359,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -391,39 +379,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -431,19 +419,119 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
